--- a/documents/lecture_00/1125_Schedule_2020.xlsx
+++ b/documents/lecture_00/1125_Schedule_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwilliams/MIT/Courses/compuxo/documents/lecture_00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DDB3D12-434B-A446-B3DC-2ECB0607470A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC1F08B-A7F0-074E-8CC1-284C09D24F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="3320" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="1100" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="3" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t>LECT 21</t>
   </si>
   <si>
-    <t>Hardware &amp; Devices</t>
-  </si>
-  <si>
     <t>HW09 is Report 2 on Kogs</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>ES6 JavaScript Practice Coding</t>
+  </si>
+  <si>
+    <t>Full Stack Architecting - UI, Web Servers, DB</t>
   </si>
 </sst>
 </file>
@@ -1792,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1807,7 +1807,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="23">
       <c r="A1" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="3" spans="1:29" ht="23">
       <c r="A3" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -1872,10 +1872,10 @@
         <v>44075</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5"/>
@@ -1912,11 +1912,11 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1935,10 +1935,10 @@
         <v>44077</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9"/>
@@ -1981,7 +1981,7 @@
         <v>44082</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="28"/>
@@ -2065,10 +2065,10 @@
         <v>44084</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="19"/>
     </row>
@@ -2087,7 +2087,7 @@
         <v>44089</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="21" spans="1:29" ht="23">
       <c r="A21" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
@@ -2193,10 +2193,10 @@
         <v>44091</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23"/>
@@ -2263,7 +2263,7 @@
         <v>44096</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -2323,10 +2323,10 @@
         <v>44103</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="5"/>
     </row>
@@ -2345,7 +2345,7 @@
         <v>44105</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
@@ -2362,7 +2362,7 @@
       <c r="B33" s="15"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="8"/>
     </row>
@@ -2381,10 +2381,10 @@
         <v>44110</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E35" s="5"/>
     </row>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="37" spans="1:29" ht="23">
       <c r="A37" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
@@ -2449,7 +2449,7 @@
         <v>44112</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2466,7 +2466,7 @@
       <c r="B41" s="15"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E41" s="8"/>
     </row>
@@ -2476,7 +2476,7 @@
         <v>44117</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="9"/>
@@ -2496,7 +2496,7 @@
         <v>44119</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" s="31"/>
       <c r="E45" s="35"/>
@@ -2532,10 +2532,10 @@
         <v>44124</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E49" s="5"/>
     </row>
@@ -2554,7 +2554,7 @@
         <v>44126</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -2571,7 +2571,7 @@
       <c r="B53" s="23"/>
       <c r="C53" s="22"/>
       <c r="D53" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E53" s="8"/>
     </row>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="55" spans="1:5" ht="23">
       <c r="A55" s="44" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B55" s="45"/>
       <c r="C55" s="45"/>
@@ -2615,7 +2615,7 @@
         <v>19</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E57" s="33"/>
     </row>
@@ -2673,7 +2673,7 @@
         <v>19</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E63" s="36"/>
     </row>
@@ -2717,7 +2717,7 @@
       <c r="A68" s="6"/>
       <c r="B68" s="14"/>
       <c r="C68" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -2779,7 +2779,7 @@
         <v>19</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E71" s="5"/>
     </row>
@@ -2836,7 +2836,7 @@
         <v>19</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E77" s="19"/>
     </row>
@@ -2873,7 +2873,7 @@
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2916,10 +2916,10 @@
       <c r="B87" s="15"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:5">

--- a/documents/lecture_00/1125_Schedule_2020.xlsx
+++ b/documents/lecture_00/1125_Schedule_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnwilliams/MIT/Courses/compuxo/documents/lecture_00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DDB3D12-434B-A446-B3DC-2ECB0607470A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40378784-5DBC-5C45-9388-0C36244C206D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="3320" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10060" yWindow="840" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>SES #</t>
   </si>
@@ -99,36 +99,15 @@
     <t>LECT 14</t>
   </si>
   <si>
-    <t>HW01 DUE, HW02 OUT</t>
-  </si>
-  <si>
-    <t>HW02 DUE, HW03 OUT</t>
-  </si>
-  <si>
-    <t>HW05 DUE, HW06 OUT</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>HW03 DUE, HW04 OUT</t>
-  </si>
-  <si>
     <t>LECT 4</t>
   </si>
   <si>
     <t>PROJ 01</t>
   </si>
   <si>
-    <t>PROJ 02</t>
-  </si>
-  <si>
-    <t>PROJ 04</t>
-  </si>
-  <si>
-    <t>PRESENT</t>
-  </si>
-  <si>
     <t>Term Project Due</t>
   </si>
   <si>
@@ -150,21 +129,9 @@
     <t>LECT 21</t>
   </si>
   <si>
-    <t>Hardware &amp; Devices</t>
-  </si>
-  <si>
-    <t>HW09 is Report 2 on Kogs</t>
-  </si>
-  <si>
     <t>Introduction &amp; Course Overview</t>
   </si>
   <si>
-    <t>Cloud Computation</t>
-  </si>
-  <si>
-    <t>HW01: AWS VM - HTTP Server</t>
-  </si>
-  <si>
     <t>Package Management - NPM</t>
   </si>
   <si>
@@ -177,9 +144,6 @@
     <t>Data Services</t>
   </si>
   <si>
-    <t>HW04: Three Tier App</t>
-  </si>
-  <si>
     <t>Collaboration - GIT, CI, CD</t>
   </si>
   <si>
@@ -189,9 +153,6 @@
     <t>ML II</t>
   </si>
   <si>
-    <t>HW05: No HW this week</t>
-  </si>
-  <si>
     <t>1.125 Software Engineering &amp; Architecting</t>
   </si>
   <si>
@@ -201,18 +162,9 @@
     <t>HW08: Project Deliverable 02</t>
   </si>
   <si>
-    <t>HW 04 DUE</t>
-  </si>
-  <si>
-    <t>HW10 DUE</t>
-  </si>
-  <si>
     <t>No HW this week</t>
   </si>
   <si>
-    <t>HW05 OUT</t>
-  </si>
-  <si>
     <t>HW07: Project Deliverable 01</t>
   </si>
   <si>
@@ -225,9 +177,6 @@
     <t>Project - Phase 4</t>
   </si>
   <si>
-    <t>Project - Presentations</t>
-  </si>
-  <si>
     <t>HW06 DUE</t>
   </si>
   <si>
@@ -237,37 +186,58 @@
     <t xml:space="preserve">Digital Transformation </t>
   </si>
   <si>
-    <t xml:space="preserve">Lean Startup and Agile </t>
-  </si>
-  <si>
     <t>REST and Routes on Web Servers</t>
   </si>
   <si>
     <t>HW00: Install VSCode and Git</t>
   </si>
   <si>
-    <t>Lab</t>
-  </si>
-  <si>
     <t>Container and Cloud</t>
   </si>
   <si>
-    <t>HW03: Touching the Cloud</t>
-  </si>
-  <si>
     <t>HW02:  REST API</t>
   </si>
   <si>
-    <t>GE Case Study</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hashes Merkle Trees </t>
   </si>
   <si>
     <t>No Class</t>
   </si>
   <si>
-    <t>ES6 JavaScript Practice Coding</t>
+    <t>HW01- setup git website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javascript ES6 </t>
+  </si>
+  <si>
+    <t>HW2 DUE - HW03: Touching the Cloud</t>
+  </si>
+  <si>
+    <t>HW3 DUE - HW04: Three Tier App</t>
+  </si>
+  <si>
+    <t>HW4 Due - HW5 Out</t>
+  </si>
+  <si>
+    <t>HW05 DUE</t>
+  </si>
+  <si>
+    <t>Cloud Architectures</t>
+  </si>
+  <si>
+    <t>Practice Presentations</t>
+  </si>
+  <si>
+    <t>Final Presentations</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>JavaScript and Modern Web Computing</t>
+  </si>
+  <si>
+    <t>Lean and Agile - GE Case Study</t>
   </si>
 </sst>
 </file>
@@ -278,7 +248,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mm\ dd"/>
     <numFmt numFmtId="165" formatCode="[$-409]ddd\,\ mmm\ d"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -395,12 +365,6 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -984,7 +948,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="40" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="40" applyFont="1"/>
@@ -1030,8 +994,7 @@
     <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="17" fillId="3" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="1" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="8" fillId="8" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="8" fillId="8" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1044,8 +1007,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="23" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1054,12 +1023,6 @@
     <xf numFmtId="164" fontId="13" fillId="4" borderId="4" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="13" fillId="4" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="13" fillId="4" borderId="6" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="24" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="24" fillId="9" borderId="2" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="392">
     <cellStyle name="Accent1" xfId="41" builtinId="29"/>
@@ -1790,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC93"/>
+  <dimension ref="A1:AC84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1806,22 +1769,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="23">
-      <c r="A1" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="A1" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="3" spans="1:29" ht="23">
-      <c r="A3" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+      <c r="A3" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:29" s="4" customFormat="1">
       <c r="A4" s="3" t="s">
@@ -1837,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -1872,10 +1835,10 @@
         <v>44075</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5"/>
@@ -1910,37 +1873,64 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+    <row r="7" spans="1:29" s="1" customFormat="1">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16">
+        <v>44077</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="6"/>
       <c r="B8" s="14"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:29" s="1" customFormat="1">
       <c r="A9" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="16">
-        <v>44077</v>
+        <v>44082</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="26"/>
+        <v>60</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="28"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
@@ -1969,46 +1959,24 @@
     <row r="10" spans="1:29">
       <c r="A10" s="6"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:29" s="1" customFormat="1">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:29" s="25" customFormat="1">
       <c r="A11" s="9" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B11" s="16">
-        <v>44082</v>
+        <v>44084</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="28"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
+        <v>53</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="6"/>
@@ -2018,13 +1986,17 @@
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:29" s="1" customFormat="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="29"/>
+      <c r="A13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16">
+        <v>44089</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
@@ -2051,46 +2023,40 @@
       <c r="AC13"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="6"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:29" s="25" customFormat="1">
-      <c r="A15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="16">
-        <v>44084</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="6"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:29" s="1" customFormat="1">
-      <c r="A17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="16">
-        <v>44089</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="10"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:29" ht="23">
+      <c r="A16" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+    </row>
+    <row r="17" spans="1:29" s="4" customFormat="1">
+      <c r="A17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12"/>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
@@ -2116,853 +2082,739 @@
       <c r="AB17"/>
       <c r="AC17"/>
     </row>
-    <row r="18" spans="1:29">
-      <c r="A18" s="10"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:29">
-      <c r="A19" s="8"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:29">
-      <c r="A20" s="10"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:29" ht="23">
-      <c r="A21" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-    </row>
-    <row r="22" spans="1:29" s="4" customFormat="1">
-      <c r="A22" s="12" t="s">
+    <row r="18" spans="1:29" s="4" customFormat="1">
+      <c r="A18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="16">
+        <v>44091</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+    </row>
+    <row r="19" spans="1:29" s="4" customFormat="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+    </row>
+    <row r="20" spans="1:29" s="4" customFormat="1">
+      <c r="A20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="16">
+        <v>44096</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="10"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="10"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="16">
+        <v>44103</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="6"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:29" s="33" customFormat="1">
+      <c r="A25" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="31">
+        <v>44105</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" s="6"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" s="6"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="16">
+        <v>44110</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" s="29"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:29" ht="23">
+      <c r="A30" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+    </row>
+    <row r="31" spans="1:29" s="4" customFormat="1">
+      <c r="A31" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="12" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AC22"/>
-    </row>
-    <row r="23" spans="1:29" s="4" customFormat="1">
-      <c r="A23" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="16">
-        <v>44091</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AC23"/>
-    </row>
-    <row r="24" spans="1:29" s="4" customFormat="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
-    </row>
-    <row r="25" spans="1:29" s="4" customFormat="1">
-      <c r="A25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="16">
-        <v>44096</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25"/>
-    </row>
-    <row r="26" spans="1:29">
-      <c r="A26" s="10"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:29">
-      <c r="A27" s="8"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:29">
-      <c r="A28" s="10"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:29">
-      <c r="A29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="16">
-        <v>44103</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:29">
-      <c r="A30" s="6"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:29" s="34" customFormat="1">
-      <c r="A31" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="32">
-        <v>44105</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="E31" s="12"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
     </row>
     <row r="32" spans="1:29">
-      <c r="A32" s="6"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:29">
-      <c r="A33" s="8"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
+      <c r="A32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="16">
+        <v>44112</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20">
+        <v>44117</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:29">
-      <c r="A34" s="6"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:29">
-      <c r="A35" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="16">
-        <v>44110</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:29">
-      <c r="A36" s="30"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6"/>
       <c r="B36" s="14"/>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:29" ht="23">
-      <c r="A37" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
-    </row>
-    <row r="38" spans="1:29" s="4" customFormat="1">
-      <c r="A38" s="12" t="s">
+      <c r="E36" s="27"/>
+    </row>
+    <row r="37" spans="1:5" s="33" customFormat="1">
+      <c r="A37" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="31">
+        <v>44119</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="13">
+        <v>44124</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="13">
+        <v>44126</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="6"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="23">
+      <c r="A46" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="12" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D47" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AA38"/>
-      <c r="AB38"/>
-      <c r="AC38"/>
-    </row>
-    <row r="39" spans="1:29">
-      <c r="A39" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="16">
-        <v>44112</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:29">
-      <c r="A40" s="6"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:29">
-      <c r="A41" s="8"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="43" spans="1:29">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20">
-        <v>44117</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:29">
-      <c r="A44" s="6"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="27"/>
-    </row>
-    <row r="45" spans="1:29" s="34" customFormat="1">
-      <c r="A45" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="32">
-        <v>44119</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="35"/>
-    </row>
-    <row r="46" spans="1:29">
-      <c r="A46" s="6"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="1:29">
-      <c r="A47" s="8"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" s="33" customFormat="1">
+      <c r="A48" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="31">
+        <v>44131</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" spans="1:29">
+      <c r="A49" s="6"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:29" s="33" customFormat="1">
+      <c r="A50" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="31">
+        <v>44133</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:29">
+      <c r="A51" s="6"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:29">
+      <c r="A52" s="8"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
+      <c r="A53" s="6"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:29" s="33" customFormat="1">
+      <c r="A54" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="36">
+        <v>44138</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="35"/>
+    </row>
+    <row r="55" spans="1:29">
+      <c r="A55" s="6"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="1:29" s="33" customFormat="1">
+      <c r="A56" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="36">
+        <v>44140</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+    </row>
+    <row r="57" spans="1:29">
+      <c r="A57" s="6"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:29">
+      <c r="A58" s="8"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29">
+      <c r="A59" s="6"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:29" ht="23">
+      <c r="A60" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="49"/>
+    </row>
+    <row r="61" spans="1:29" s="4" customFormat="1">
+      <c r="A61" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+    </row>
+    <row r="62" spans="1:29">
+      <c r="A62" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="16">
+        <v>44145</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:29">
+      <c r="A63" s="6"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:29" s="33" customFormat="1">
+      <c r="A64" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="31">
+        <v>43051</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="6"/>
+      <c r="B65" s="14"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="8"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="6"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68" s="13">
+        <v>44152</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" s="19"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="6"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+    </row>
+    <row r="70" spans="1:5" s="42" customFormat="1">
+      <c r="A70" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" s="40">
+        <v>44154</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="6"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="8"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="6"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="29"/>
-    </row>
-    <row r="48" spans="1:29">
-      <c r="A48" s="6"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="13">
-        <v>44124</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="6"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="13">
-        <v>44126</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="6"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="22"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="6"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5" ht="23">
-      <c r="A55" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="12"/>
-    </row>
-    <row r="57" spans="1:5" s="34" customFormat="1">
-      <c r="A57" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="32">
-        <v>44131</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="33"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="6"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" s="34" customFormat="1">
-      <c r="A59" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="32">
-        <v>44133</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="6"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="8"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="6"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="1:5" s="34" customFormat="1">
-      <c r="A63" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" s="37">
-        <v>44138</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E63" s="36"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="6"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="1:29" s="34" customFormat="1">
-      <c r="A65" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="37">
-        <v>44140</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-    </row>
-    <row r="66" spans="1:29">
-      <c r="A66" s="6"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="1:29">
-      <c r="A67" s="8"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29">
-      <c r="A68" s="6"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:29" ht="23">
-      <c r="A69" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="46"/>
-    </row>
-    <row r="70" spans="1:29" s="4" customFormat="1">
-      <c r="A70" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" s="12"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
-      <c r="T70"/>
-      <c r="U70"/>
-      <c r="V70"/>
-      <c r="W70"/>
-      <c r="X70"/>
-      <c r="Y70"/>
-      <c r="Z70"/>
-      <c r="AA70"/>
-      <c r="AB70"/>
-      <c r="AC70"/>
-    </row>
-    <row r="71" spans="1:29">
-      <c r="A71" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="16">
-        <v>44145</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="1:29">
-      <c r="A72" s="6"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-    </row>
-    <row r="73" spans="1:29" s="34" customFormat="1">
-      <c r="A73" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" s="32">
-        <v>43051</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-    </row>
-    <row r="74" spans="1:29">
-      <c r="A74" s="6"/>
-      <c r="B74" s="14"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="1:29">
-      <c r="A75" s="8"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29">
-      <c r="A76" s="6"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="1:29">
-      <c r="A77" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B77" s="13">
-        <v>44152</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E77" s="19"/>
-    </row>
-    <row r="78" spans="1:29">
-      <c r="A78" s="6"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-    </row>
-    <row r="79" spans="1:29" s="50" customFormat="1">
-      <c r="A79" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79" s="48">
-        <v>44154</v>
-      </c>
-      <c r="C79" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-    </row>
-    <row r="80" spans="1:29">
-      <c r="A80" s="6"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="8"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="B74" s="16">
+        <v>44166</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="9"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="8"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="9"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="6"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B83" s="16">
-        <v>43067</v>
-      </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="C84" s="6"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85" s="16">
-        <v>43069</v>
-      </c>
-      <c r="C85" s="21"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="C86" s="6"/>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="8"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B89" s="16">
-        <v>43074</v>
-      </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B91" s="16">
-        <v>43076</v>
-      </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="8"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E93" s="8"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A46:E46"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
